--- a/bots/crawl_ch/output/bread_coop_2023-02-05.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-05.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11980,7 +11980,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12122,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13382,45 +13382,45 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13440,56 +13440,60 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr"/>
+          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E185" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13499,7 +13503,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13509,60 +13513,56 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13572,7 +13572,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13582,56 +13582,56 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13651,18 +13651,18 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14226,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14368,7 +14368,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14577,7 +14577,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14792,7 +14792,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14938,7 +14938,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15007,7 +15007,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15567,7 +15567,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15636,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15778,7 +15778,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15847,7 +15847,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16062,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16131,7 +16131,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16419,7 +16419,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16492,7 +16492,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16632,7 +16632,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16699,7 +16699,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16768,7 +16768,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17052,7 +17052,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17190,7 +17190,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17259,7 +17259,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17328,7 +17328,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17614,7 +17614,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17683,7 +17683,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17825,7 +17825,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17894,7 +17894,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17963,7 +17963,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18105,7 +18105,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18243,7 +18243,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18454,7 +18454,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18523,7 +18523,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18738,7 +18738,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18807,7 +18807,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18876,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18945,7 +18945,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19160,7 +19160,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19373,7 +19373,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19440,7 +19440,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19509,7 +19509,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19578,7 +19578,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19647,7 +19647,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19716,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19785,7 +19785,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19852,7 +19852,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19992,7 +19992,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20061,7 +20061,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20339,7 +20339,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20408,7 +20408,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20477,45 +20477,45 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20540,51 +20540,51 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20609,13 +20609,13 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20755,7 +20755,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21098,7 +21098,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21171,7 +21171,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21390,7 +21390,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21668,7 +21668,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21737,7 +21737,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22224,7 +22224,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22863,7 +22863,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22932,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23070,7 +23070,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23419,7 +23419,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23835,7 +23835,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23904,7 +23904,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-05 12:55:18</t>
+          <t>2023-02-05 20:49:26</t>
         </is>
       </c>
     </row>
